--- a/src/data/cwe-rules-filtered/education_cwe_filtered.xlsx
+++ b/src/data/cwe-rules-filtered/education_cwe_filtered.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>antecedents</t>
   </si>
@@ -37,31 +37,37 @@
     <t>conviction</t>
   </si>
   <si>
-    <t>frozenset({'CWE-312', 'CWE-327', 'CWE-532', 'CWE-89'})</t>
-  </si>
-  <si>
-    <t>frozenset({'CWE-312', 'CWE-327', 'CWE-532'})</t>
-  </si>
-  <si>
-    <t>frozenset({'CWE-276', 'CWE-532'})</t>
-  </si>
-  <si>
-    <t>frozenset({'CWE-312', 'CWE-327'})</t>
-  </si>
-  <si>
-    <t>frozenset({'CWE-276'})</t>
-  </si>
-  <si>
-    <t>frozenset({'CWE-276', 'CWE-89'})</t>
-  </si>
-  <si>
-    <t>frozenset({'CWE-312', 'CWE-327', 'CWE-89'})</t>
-  </si>
-  <si>
-    <t>frozenset({'CWE-276', 'CWE-532', 'CWE-89'})</t>
+    <t>antecedent_len</t>
+  </si>
+  <si>
+    <t>consequent_len</t>
+  </si>
+  <si>
+    <t>combo_len</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-89'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-89', 'CWE-327'})</t>
   </si>
   <si>
     <t>frozenset({'CWE-330'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-532'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-532', 'CWE-327'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-327'})</t>
+  </si>
+  <si>
+    <t>frozenset({'CWE-330', 'CWE-327'})</t>
+  </si>
+  <si>
+    <t>inf</t>
   </si>
 </sst>
 </file>
@@ -419,13 +425,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,120 +453,366 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1.012987012987013</v>
+      </c>
+      <c r="F2">
+        <v>0.01084812623274156</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="C2">
-        <v>0.6025641025641025</v>
-      </c>
-      <c r="D2">
-        <v>0.8703703703703703</v>
-      </c>
-      <c r="E2">
-        <v>1.131481481481481</v>
-      </c>
-      <c r="F2">
-        <v>0.07001972386587763</v>
-      </c>
-      <c r="G2">
-        <v>1.78021978021978</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1.012987012987013</v>
+      </c>
+      <c r="F3">
+        <v>0.01068376068376065</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
         <v>12</v>
-      </c>
-      <c r="C3">
-        <v>0.6025641025641025</v>
-      </c>
-      <c r="D3">
-        <v>0.7833333333333332</v>
-      </c>
-      <c r="E3">
-        <v>1.131481481481481</v>
-      </c>
-      <c r="F3">
-        <v>0.07001972386587763</v>
-      </c>
-      <c r="G3">
-        <v>1.420118343195266</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4">
-        <v>0.6025641025641025</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="D4">
-        <v>0.7833333333333332</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>1.131481481481481</v>
+        <v>1.012987012987013</v>
       </c>
       <c r="F4">
-        <v>0.07001972386587763</v>
-      </c>
-      <c r="G4">
-        <v>1.420118343195266</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.01051939513477973</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="D5">
+        <v>0.9848484848484848</v>
+      </c>
+      <c r="E5">
+        <v>1.010765550239234</v>
+      </c>
+      <c r="F5">
+        <v>0.00887573964497046</v>
+      </c>
+      <c r="G5">
+        <v>1.692307692307695</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C5">
-        <v>0.6025641025641025</v>
-      </c>
-      <c r="D5">
-        <v>0.7833333333333332</v>
-      </c>
-      <c r="E5">
-        <v>1.131481481481481</v>
-      </c>
-      <c r="F5">
-        <v>0.07001972386587763</v>
-      </c>
-      <c r="G5">
-        <v>1.420118343195266</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
       <c r="C6">
-        <v>0.6410256410256411</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D6">
-        <v>0.9259259259259259</v>
+        <v>0.9848484848484848</v>
       </c>
       <c r="E6">
-        <v>1.128472222222222</v>
+        <v>1.010765550239234</v>
       </c>
       <c r="F6">
-        <v>0.07297830374753456</v>
+        <v>0.00887573964497046</v>
       </c>
       <c r="G6">
-        <v>2.423076923076928</v>
+        <v>1.692307692307695</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>0.8076923076923077</v>
+      </c>
+      <c r="D7">
+        <v>0.984375</v>
+      </c>
+      <c r="E7">
+        <v>1.010279605263158</v>
+      </c>
+      <c r="F7">
+        <v>0.008218277449046796</v>
+      </c>
+      <c r="G7">
+        <v>1.641025641025642</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="D8">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="E8">
+        <v>1.012987012987013</v>
+      </c>
+      <c r="F8">
+        <v>0.01084812623274156</v>
+      </c>
+      <c r="G8">
+        <v>1.076923076923077</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>0.8205128205128205</v>
+      </c>
+      <c r="D9">
+        <v>0.8311688311688311</v>
+      </c>
+      <c r="E9">
+        <v>1.012987012987013</v>
+      </c>
+      <c r="F9">
+        <v>0.01051939513477973</v>
+      </c>
+      <c r="G9">
+        <v>1.063116370808678</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="D10">
+        <v>0.8552631578947372</v>
+      </c>
+      <c r="E10">
+        <v>1.010765550239234</v>
+      </c>
+      <c r="F10">
+        <v>0.00887573964497046</v>
+      </c>
+      <c r="G10">
+        <v>1.062937062937064</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>0.8076923076923077</v>
+      </c>
+      <c r="D11">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="E11">
+        <v>1.012987012987013</v>
+      </c>
+      <c r="F11">
+        <v>0.01035502958579881</v>
+      </c>
+      <c r="G11">
+        <v>1.057692307692307</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>0.8076923076923077</v>
+      </c>
+      <c r="D12">
+        <v>0.8289473684210527</v>
+      </c>
+      <c r="E12">
+        <v>1.010279605263158</v>
+      </c>
+      <c r="F12">
+        <v>0.008218277449046796</v>
+      </c>
+      <c r="G12">
+        <v>1.04930966469428</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
